--- a/sccincc/public/orderchart.xlsx
+++ b/sccincc/public/orderchart.xlsx
@@ -11,103 +11,6 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>工单统计：2012-01-01 至 2012-12-31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月份/部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水检所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次供水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稽查科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水质科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
